--- a/establecimientos_pendientes.xlsx
+++ b/establecimientos_pendientes.xlsx
@@ -1258,7 +1258,7 @@
         <v>86</v>
       </c>
       <c r="D10">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1294,7 +1294,7 @@
         <v>20</v>
       </c>
       <c r="P10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="Q10">
         <v>2024</v>
@@ -1534,7 +1534,7 @@
         <v>92</v>
       </c>
       <c r="D16">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E16">
         <v>10</v>
@@ -1570,7 +1570,7 @@
         <v>7</v>
       </c>
       <c r="P16">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="Q16">
         <v>2024</v>
@@ -1590,7 +1590,7 @@
         <v>93</v>
       </c>
       <c r="D17">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E17">
         <v>23</v>
@@ -1626,7 +1626,7 @@
         <v>17</v>
       </c>
       <c r="P17">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q17">
         <v>2024</v>
@@ -4089,7 +4089,7 @@
         <v>144</v>
       </c>
       <c r="D68">
-        <v>14954</v>
+        <v>16590</v>
       </c>
       <c r="E68">
         <v>1573</v>
@@ -4119,7 +4119,7 @@
         <v>1544</v>
       </c>
       <c r="N68">
-        <v>420</v>
+        <v>2056</v>
       </c>
       <c r="Q68">
         <v>2024</v>

--- a/establecimientos_pendientes.xlsx
+++ b/establecimientos_pendientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
   <si>
     <t>SEREMI de Salud</t>
   </si>
@@ -28,6 +28,42 @@
     <t>Total</t>
   </si>
   <si>
+    <t>2024-01</t>
+  </si>
+  <si>
+    <t>2024-02</t>
+  </si>
+  <si>
+    <t>2024-03</t>
+  </si>
+  <si>
+    <t>2024-04</t>
+  </si>
+  <si>
+    <t>2024-05</t>
+  </si>
+  <si>
+    <t>2024-06</t>
+  </si>
+  <si>
+    <t>2024-07</t>
+  </si>
+  <si>
+    <t>2024-08</t>
+  </si>
+  <si>
+    <t>2024-09</t>
+  </si>
+  <si>
+    <t>2024-10</t>
+  </si>
+  <si>
+    <t>2024-11</t>
+  </si>
+  <si>
+    <t>2024-12</t>
+  </si>
+  <si>
     <t>Año</t>
   </si>
   <si>
@@ -463,10 +499,10 @@
     <t>Centro Médico Santa Lucía</t>
   </si>
   <si>
+    <t>Pendiente</t>
+  </si>
+  <si>
     <t>Al día</t>
-  </si>
-  <si>
-    <t>Pendiente</t>
   </si>
 </sst>
 </file>
@@ -843,58 +879,58 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1">
-        <v>1</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2</v>
-      </c>
-      <c r="G1" s="1">
-        <v>3</v>
-      </c>
-      <c r="H1" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="1">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="1">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="Q1" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D2">
         <v>14226</v>
@@ -933,18 +969,18 @@
         <v>2024</v>
       </c>
       <c r="R2" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D3">
         <v>32928</v>
@@ -983,18 +1019,18 @@
         <v>2024</v>
       </c>
       <c r="R3" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D4">
         <v>32</v>
@@ -1036,18 +1072,18 @@
         <v>2024</v>
       </c>
       <c r="R4" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D5">
         <v>834</v>
@@ -1070,22 +1106,34 @@
       <c r="J5">
         <v>144</v>
       </c>
+      <c r="K5" t="s">
+        <v>161</v>
+      </c>
+      <c r="L5" t="s">
+        <v>161</v>
+      </c>
+      <c r="M5" t="s">
+        <v>161</v>
+      </c>
+      <c r="N5" t="s">
+        <v>161</v>
+      </c>
       <c r="Q5">
         <v>2024</v>
       </c>
       <c r="R5" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D6">
         <v>266</v>
@@ -1127,18 +1175,18 @@
         <v>2024</v>
       </c>
       <c r="R6" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7">
         <v>12036</v>
@@ -1170,22 +1218,25 @@
       <c r="M7">
         <v>1189</v>
       </c>
+      <c r="N7" t="s">
+        <v>161</v>
+      </c>
       <c r="Q7">
         <v>2024</v>
       </c>
       <c r="R7" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D8">
         <v>4116</v>
@@ -1227,35 +1278,65 @@
         <v>2024</v>
       </c>
       <c r="R8" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>85</v>
+        <v>97</v>
+      </c>
+      <c r="E9" t="s">
+        <v>161</v>
+      </c>
+      <c r="F9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" t="s">
+        <v>161</v>
+      </c>
+      <c r="J9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K9" t="s">
+        <v>161</v>
+      </c>
+      <c r="L9" t="s">
+        <v>161</v>
+      </c>
+      <c r="M9" t="s">
+        <v>161</v>
+      </c>
+      <c r="N9" t="s">
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>2024</v>
       </c>
       <c r="R9" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D10">
         <v>211</v>
@@ -1300,35 +1381,65 @@
         <v>2024</v>
       </c>
       <c r="R10" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>87</v>
+        <v>99</v>
+      </c>
+      <c r="E11" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" t="s">
+        <v>161</v>
+      </c>
+      <c r="G11" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" t="s">
+        <v>161</v>
+      </c>
+      <c r="I11" t="s">
+        <v>161</v>
+      </c>
+      <c r="J11" t="s">
+        <v>161</v>
+      </c>
+      <c r="K11" t="s">
+        <v>161</v>
+      </c>
+      <c r="L11" t="s">
+        <v>161</v>
+      </c>
+      <c r="M11" t="s">
+        <v>161</v>
+      </c>
+      <c r="N11" t="s">
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2024</v>
       </c>
       <c r="R11" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D12">
         <v>3630</v>
@@ -1367,18 +1478,18 @@
         <v>2024</v>
       </c>
       <c r="R12" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D13">
         <v>3528</v>
@@ -1423,18 +1534,18 @@
         <v>2024</v>
       </c>
       <c r="R13" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D14">
         <v>5921</v>
@@ -1473,18 +1584,18 @@
         <v>2024</v>
       </c>
       <c r="R14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D15">
         <v>4553</v>
@@ -1516,22 +1627,25 @@
       <c r="M15">
         <v>454</v>
       </c>
+      <c r="N15" t="s">
+        <v>161</v>
+      </c>
       <c r="Q15">
         <v>2024</v>
       </c>
       <c r="R15" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D16">
         <v>130</v>
@@ -1576,18 +1690,18 @@
         <v>2024</v>
       </c>
       <c r="R16" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D17">
         <v>267</v>
@@ -1632,18 +1746,18 @@
         <v>2024</v>
       </c>
       <c r="R17" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D18">
         <v>14236</v>
@@ -1682,18 +1796,18 @@
         <v>2024</v>
       </c>
       <c r="R18" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D19">
         <v>30434</v>
@@ -1725,22 +1839,25 @@
       <c r="M19">
         <v>3291</v>
       </c>
+      <c r="N19" t="s">
+        <v>161</v>
+      </c>
       <c r="Q19">
         <v>2024</v>
       </c>
       <c r="R19" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="20" spans="1:18">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D20">
         <v>11375</v>
@@ -1782,18 +1899,18 @@
         <v>2024</v>
       </c>
       <c r="R20" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:18">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D21">
         <v>4415</v>
@@ -1819,22 +1936,31 @@
       <c r="K21">
         <v>657</v>
       </c>
+      <c r="L21" t="s">
+        <v>161</v>
+      </c>
+      <c r="M21" t="s">
+        <v>161</v>
+      </c>
+      <c r="N21" t="s">
+        <v>161</v>
+      </c>
       <c r="Q21">
         <v>2024</v>
       </c>
       <c r="R21" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="1:18">
       <c r="A22" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D22">
         <v>217</v>
@@ -1879,18 +2005,18 @@
         <v>2024</v>
       </c>
       <c r="R22" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:18">
       <c r="A23" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B23" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D23">
         <v>619</v>
@@ -1935,18 +2061,18 @@
         <v>2024</v>
       </c>
       <c r="R23" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:18">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C24" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D24">
         <v>19273</v>
@@ -1978,22 +2104,25 @@
       <c r="M24">
         <v>1852</v>
       </c>
+      <c r="N24" t="s">
+        <v>161</v>
+      </c>
       <c r="Q24">
         <v>2024</v>
       </c>
       <c r="R24" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:18">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D25">
         <v>8268</v>
@@ -2035,18 +2164,18 @@
         <v>2024</v>
       </c>
       <c r="R25" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:18">
       <c r="A26" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B26" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D26">
         <v>168</v>
@@ -2088,18 +2217,18 @@
         <v>2024</v>
       </c>
       <c r="R26" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:18">
       <c r="A27" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D27">
         <v>1672</v>
@@ -2138,18 +2267,18 @@
         <v>2024</v>
       </c>
       <c r="R27" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:18">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B28" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D28">
         <v>139</v>
@@ -2191,18 +2320,18 @@
         <v>2024</v>
       </c>
       <c r="R28" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:18">
       <c r="A29" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B29" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C29" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D29">
         <v>32</v>
@@ -2241,35 +2370,65 @@
         <v>2024</v>
       </c>
       <c r="R29" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:18">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C30" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="E30" t="s">
+        <v>161</v>
+      </c>
+      <c r="F30" t="s">
+        <v>161</v>
+      </c>
+      <c r="G30" t="s">
+        <v>161</v>
+      </c>
+      <c r="H30" t="s">
+        <v>161</v>
+      </c>
+      <c r="I30" t="s">
+        <v>161</v>
+      </c>
+      <c r="J30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K30" t="s">
+        <v>161</v>
+      </c>
+      <c r="L30" t="s">
+        <v>161</v>
+      </c>
+      <c r="M30" t="s">
+        <v>161</v>
+      </c>
+      <c r="N30" t="s">
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>2024</v>
       </c>
       <c r="R30" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" spans="1:18">
       <c r="A31" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C31" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D31">
         <v>4842</v>
@@ -2308,18 +2467,18 @@
         <v>2024</v>
       </c>
       <c r="R31" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:18">
       <c r="A32" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C32" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D32">
         <v>5321</v>
@@ -2361,18 +2520,18 @@
         <v>2024</v>
       </c>
       <c r="R32" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:18">
       <c r="A33" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C33" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D33">
         <v>186</v>
@@ -2417,18 +2576,18 @@
         <v>2024</v>
       </c>
       <c r="R33" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="A34" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B34" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D34">
         <v>924</v>
@@ -2457,22 +2616,28 @@
       <c r="L34">
         <v>136</v>
       </c>
+      <c r="M34" t="s">
+        <v>161</v>
+      </c>
+      <c r="N34" t="s">
+        <v>161</v>
+      </c>
       <c r="Q34">
         <v>2024</v>
       </c>
       <c r="R34" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:18">
       <c r="A35" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B35" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D35">
         <v>27</v>
@@ -2514,18 +2679,18 @@
         <v>2024</v>
       </c>
       <c r="R35" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:18">
       <c r="A36" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B36" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="C36" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D36">
         <v>7265</v>
@@ -2564,18 +2729,18 @@
         <v>2024</v>
       </c>
       <c r="R36" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:18">
       <c r="A37" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D37">
         <v>27</v>
@@ -2604,6 +2769,9 @@
       <c r="L37">
         <v>5</v>
       </c>
+      <c r="M37" t="s">
+        <v>161</v>
+      </c>
       <c r="N37">
         <v>1</v>
       </c>
@@ -2614,18 +2782,18 @@
         <v>2024</v>
       </c>
       <c r="R37" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="38" spans="1:18">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D38">
         <v>8501</v>
@@ -2664,18 +2832,18 @@
         <v>2024</v>
       </c>
       <c r="R38" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="A39" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B39" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C39" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D39">
         <v>21551</v>
@@ -2707,22 +2875,25 @@
       <c r="M39">
         <v>2340</v>
       </c>
+      <c r="N39" t="s">
+        <v>161</v>
+      </c>
       <c r="Q39">
         <v>2024</v>
       </c>
       <c r="R39" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D40">
         <v>297</v>
@@ -2761,18 +2932,18 @@
         <v>2024</v>
       </c>
       <c r="R40" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:18">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D41">
         <v>4583</v>
@@ -2811,18 +2982,18 @@
         <v>2024</v>
       </c>
       <c r="R41" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:18">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B42" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="C42" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D42">
         <v>42</v>
@@ -2839,22 +3010,40 @@
       <c r="H42">
         <v>1</v>
       </c>
+      <c r="I42" t="s">
+        <v>161</v>
+      </c>
+      <c r="J42" t="s">
+        <v>161</v>
+      </c>
+      <c r="K42" t="s">
+        <v>161</v>
+      </c>
+      <c r="L42" t="s">
+        <v>161</v>
+      </c>
+      <c r="M42" t="s">
+        <v>161</v>
+      </c>
+      <c r="N42" t="s">
+        <v>161</v>
+      </c>
       <c r="Q42">
         <v>2024</v>
       </c>
       <c r="R42" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="1:18">
       <c r="A43" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C43" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="D43">
         <v>5184</v>
@@ -2896,18 +3085,18 @@
         <v>2024</v>
       </c>
       <c r="R43" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:18">
       <c r="A44" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C44" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D44">
         <v>182</v>
@@ -2949,18 +3138,18 @@
         <v>2024</v>
       </c>
       <c r="R44" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:18">
       <c r="A45" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="C45" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D45">
         <v>4894</v>
@@ -2992,22 +3181,25 @@
       <c r="M45">
         <v>514</v>
       </c>
+      <c r="N45" t="s">
+        <v>161</v>
+      </c>
       <c r="Q45">
         <v>2024</v>
       </c>
       <c r="R45" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="1:18">
       <c r="A46" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C46" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D46">
         <v>141</v>
@@ -3033,22 +3225,31 @@
       <c r="K46">
         <v>27</v>
       </c>
+      <c r="L46" t="s">
+        <v>161</v>
+      </c>
+      <c r="M46" t="s">
+        <v>161</v>
+      </c>
+      <c r="N46" t="s">
+        <v>161</v>
+      </c>
       <c r="Q46">
         <v>2024</v>
       </c>
       <c r="R46" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="1:18">
       <c r="A47" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D47">
         <v>347</v>
@@ -3087,18 +3288,18 @@
         <v>2024</v>
       </c>
       <c r="R47" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:18">
       <c r="A48" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D48">
         <v>1197</v>
@@ -3140,18 +3341,18 @@
         <v>2024</v>
       </c>
       <c r="R48" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:18">
       <c r="A49" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C49" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D49">
         <v>1020</v>
@@ -3196,18 +3397,18 @@
         <v>2024</v>
       </c>
       <c r="R49" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:18">
       <c r="A50" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C50" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D50">
         <v>571</v>
@@ -3239,22 +3440,25 @@
       <c r="M50">
         <v>37</v>
       </c>
+      <c r="N50" t="s">
+        <v>161</v>
+      </c>
       <c r="Q50">
         <v>2024</v>
       </c>
       <c r="R50" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:18">
       <c r="A51" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B51" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C51" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D51">
         <v>7127</v>
@@ -3293,18 +3497,18 @@
         <v>2024</v>
       </c>
       <c r="R51" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:18">
       <c r="A52" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="C52" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D52">
         <v>11109</v>
@@ -3330,6 +3534,9 @@
       <c r="K52">
         <v>1267</v>
       </c>
+      <c r="L52" t="s">
+        <v>161</v>
+      </c>
       <c r="M52">
         <v>1160</v>
       </c>
@@ -3340,18 +3547,18 @@
         <v>2024</v>
       </c>
       <c r="R52" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="53" spans="1:18">
       <c r="A53" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="C53" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D53">
         <v>8</v>
@@ -3383,6 +3590,9 @@
       <c r="M53">
         <v>0</v>
       </c>
+      <c r="N53" t="s">
+        <v>161</v>
+      </c>
       <c r="O53">
         <v>0</v>
       </c>
@@ -3393,18 +3603,18 @@
         <v>2024</v>
       </c>
       <c r="R53" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="54" spans="1:18">
       <c r="A54" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B54" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C54" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3430,6 +3640,9 @@
       <c r="K54">
         <v>1</v>
       </c>
+      <c r="L54" t="s">
+        <v>161</v>
+      </c>
       <c r="M54">
         <v>0</v>
       </c>
@@ -3443,18 +3656,18 @@
         <v>2024</v>
       </c>
       <c r="R54" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="55" spans="1:18">
       <c r="A55" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="C55" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="D55">
         <v>5</v>
@@ -3480,6 +3693,15 @@
       <c r="K55">
         <v>1</v>
       </c>
+      <c r="L55" t="s">
+        <v>161</v>
+      </c>
+      <c r="M55" t="s">
+        <v>161</v>
+      </c>
+      <c r="N55" t="s">
+        <v>161</v>
+      </c>
       <c r="P55">
         <v>1</v>
       </c>
@@ -3487,18 +3709,18 @@
         <v>2024</v>
       </c>
       <c r="R55" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="56" spans="1:18">
       <c r="A56" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B56" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="C56" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D56">
         <v>139</v>
@@ -3537,18 +3759,18 @@
         <v>2024</v>
       </c>
       <c r="R56" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:18">
       <c r="A57" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B57" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="C57" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -3590,18 +3812,18 @@
         <v>2024</v>
       </c>
       <c r="R57" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:18">
       <c r="A58" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="C58" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D58">
         <v>107</v>
@@ -3643,18 +3865,18 @@
         <v>2024</v>
       </c>
       <c r="R58" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:18">
       <c r="A59" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="C59" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D59">
         <v>17833</v>
@@ -3693,18 +3915,18 @@
         <v>2024</v>
       </c>
       <c r="R59" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:18">
       <c r="A60" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D60">
         <v>8263</v>
@@ -3743,18 +3965,18 @@
         <v>2024</v>
       </c>
       <c r="R60" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:18">
       <c r="A61" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B61" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="C61" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D61">
         <v>642</v>
@@ -3793,18 +4015,18 @@
         <v>2024</v>
       </c>
       <c r="R61" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:18">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C62" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D62">
         <v>3300</v>
@@ -3836,22 +4058,25 @@
       <c r="M62">
         <v>307</v>
       </c>
+      <c r="N62" t="s">
+        <v>161</v>
+      </c>
       <c r="Q62">
         <v>2024</v>
       </c>
       <c r="R62" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="63" spans="1:18">
       <c r="A63" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="C63" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D63">
         <v>27</v>
@@ -3877,22 +4102,31 @@
       <c r="K63">
         <v>1</v>
       </c>
+      <c r="L63" t="s">
+        <v>161</v>
+      </c>
+      <c r="M63" t="s">
+        <v>161</v>
+      </c>
+      <c r="N63" t="s">
+        <v>161</v>
+      </c>
       <c r="Q63">
         <v>2024</v>
       </c>
       <c r="R63" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="64" spans="1:18">
       <c r="A64" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B64" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C64" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D64">
         <v>609</v>
@@ -3937,18 +4171,18 @@
         <v>2024</v>
       </c>
       <c r="R64" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:18">
       <c r="A65" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B65" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="C65" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D65">
         <v>574</v>
@@ -3977,22 +4211,28 @@
       <c r="L65">
         <v>64</v>
       </c>
+      <c r="M65" t="s">
+        <v>161</v>
+      </c>
+      <c r="N65" t="s">
+        <v>161</v>
+      </c>
       <c r="Q65">
         <v>2024</v>
       </c>
       <c r="R65" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="66" spans="1:18">
       <c r="A66" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B66" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="C66" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="D66">
         <v>191</v>
@@ -4021,22 +4261,28 @@
       <c r="L66">
         <v>2</v>
       </c>
+      <c r="M66" t="s">
+        <v>161</v>
+      </c>
+      <c r="N66" t="s">
+        <v>161</v>
+      </c>
       <c r="Q66">
         <v>2024</v>
       </c>
       <c r="R66" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="67" spans="1:18">
       <c r="A67" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="C67" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="D67">
         <v>10828</v>
@@ -4075,18 +4321,18 @@
         <v>2024</v>
       </c>
       <c r="R67" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:18">
       <c r="A68" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B68" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="C68" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D68">
         <v>16590</v>
@@ -4125,18 +4371,18 @@
         <v>2024</v>
       </c>
       <c r="R68" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:18">
       <c r="A69" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B69" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="E69">
         <v>0</v>
@@ -4178,18 +4424,18 @@
         <v>2024</v>
       </c>
       <c r="R69" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:18">
       <c r="A70" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="C70" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D70">
         <v>16</v>
@@ -4197,22 +4443,49 @@
       <c r="E70">
         <v>16</v>
       </c>
+      <c r="F70" t="s">
+        <v>161</v>
+      </c>
+      <c r="G70" t="s">
+        <v>161</v>
+      </c>
+      <c r="H70" t="s">
+        <v>161</v>
+      </c>
+      <c r="I70" t="s">
+        <v>161</v>
+      </c>
+      <c r="J70" t="s">
+        <v>161</v>
+      </c>
+      <c r="K70" t="s">
+        <v>161</v>
+      </c>
+      <c r="L70" t="s">
+        <v>161</v>
+      </c>
+      <c r="M70" t="s">
+        <v>161</v>
+      </c>
+      <c r="N70" t="s">
+        <v>161</v>
+      </c>
       <c r="Q70">
         <v>2024</v>
       </c>
       <c r="R70" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="71" spans="1:18">
       <c r="A71" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C71" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D71">
         <v>3278</v>
@@ -4244,22 +4517,25 @@
       <c r="M71">
         <v>347</v>
       </c>
+      <c r="N71" t="s">
+        <v>161</v>
+      </c>
       <c r="Q71">
         <v>2024</v>
       </c>
       <c r="R71" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:18">
       <c r="A72" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -4282,11 +4558,20 @@
       <c r="K72">
         <v>0</v>
       </c>
+      <c r="L72" t="s">
+        <v>161</v>
+      </c>
+      <c r="M72" t="s">
+        <v>161</v>
+      </c>
+      <c r="N72" t="s">
+        <v>161</v>
+      </c>
       <c r="Q72">
         <v>2024</v>
       </c>
       <c r="R72" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/establecimientos_pendientes.xlsx
+++ b/establecimientos_pendientes.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="163">
   <si>
     <t>SEREMI de Salud</t>
   </si>
@@ -933,7 +933,7 @@
         <v>90</v>
       </c>
       <c r="D2">
-        <v>14226</v>
+        <v>15627</v>
       </c>
       <c r="E2">
         <v>1577</v>
@@ -965,6 +965,9 @@
       <c r="N2">
         <v>1433</v>
       </c>
+      <c r="O2">
+        <v>1401</v>
+      </c>
       <c r="Q2">
         <v>2024</v>
       </c>
@@ -1015,11 +1018,14 @@
       <c r="N3">
         <v>3735</v>
       </c>
+      <c r="O3" t="s">
+        <v>161</v>
+      </c>
       <c r="Q3">
         <v>2024</v>
       </c>
       <c r="R3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -1033,7 +1039,7 @@
         <v>92</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1041,8 +1047,8 @@
       <c r="F4">
         <v>3</v>
       </c>
-      <c r="G4">
-        <v>0</v>
+      <c r="G4" t="s">
+        <v>161</v>
       </c>
       <c r="H4">
         <v>4</v>
@@ -1054,7 +1060,7 @@
         <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>6</v>
@@ -1068,11 +1074,14 @@
       <c r="O4">
         <v>3</v>
       </c>
+      <c r="P4">
+        <v>6</v>
+      </c>
       <c r="Q4">
         <v>2024</v>
       </c>
       <c r="R4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -1118,6 +1127,9 @@
       <c r="N5" t="s">
         <v>161</v>
       </c>
+      <c r="O5" t="s">
+        <v>161</v>
+      </c>
       <c r="Q5">
         <v>2024</v>
       </c>
@@ -1141,8 +1153,8 @@
       <c r="E6">
         <v>29</v>
       </c>
-      <c r="F6">
-        <v>0</v>
+      <c r="F6" t="s">
+        <v>161</v>
       </c>
       <c r="G6">
         <v>24</v>
@@ -1157,7 +1169,7 @@
         <v>30</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L6">
         <v>23</v>
@@ -1175,7 +1187,7 @@
         <v>2024</v>
       </c>
       <c r="R6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -1221,6 +1233,9 @@
       <c r="N7" t="s">
         <v>161</v>
       </c>
+      <c r="O7" t="s">
+        <v>161</v>
+      </c>
       <c r="Q7">
         <v>2024</v>
       </c>
@@ -1321,6 +1336,9 @@
       <c r="N9" t="s">
         <v>161</v>
       </c>
+      <c r="O9" t="s">
+        <v>161</v>
+      </c>
       <c r="Q9">
         <v>2024</v>
       </c>
@@ -1339,7 +1357,7 @@
         <v>98</v>
       </c>
       <c r="D10">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="E10">
         <v>20</v>
@@ -1375,7 +1393,7 @@
         <v>20</v>
       </c>
       <c r="P10">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="Q10">
         <v>2024</v>
@@ -1424,6 +1442,9 @@
       <c r="N11" t="s">
         <v>161</v>
       </c>
+      <c r="O11" t="s">
+        <v>161</v>
+      </c>
       <c r="Q11">
         <v>2024</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>100</v>
       </c>
       <c r="D12">
-        <v>3630</v>
+        <v>3668</v>
       </c>
       <c r="E12">
         <v>435</v>
@@ -1474,6 +1495,9 @@
       <c r="N12">
         <v>364</v>
       </c>
+      <c r="O12">
+        <v>38</v>
+      </c>
       <c r="Q12">
         <v>2024</v>
       </c>
@@ -1492,7 +1516,7 @@
         <v>101</v>
       </c>
       <c r="D13">
-        <v>3528</v>
+        <v>3640</v>
       </c>
       <c r="E13">
         <v>307</v>
@@ -1528,7 +1552,7 @@
         <v>306</v>
       </c>
       <c r="P13">
-        <v>112</v>
+        <v>224</v>
       </c>
       <c r="Q13">
         <v>2024</v>
@@ -1580,11 +1604,14 @@
       <c r="N14">
         <v>734</v>
       </c>
+      <c r="O14" t="s">
+        <v>161</v>
+      </c>
       <c r="Q14">
         <v>2024</v>
       </c>
       <c r="R14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" spans="1:18">
@@ -1630,6 +1657,9 @@
       <c r="N15" t="s">
         <v>161</v>
       </c>
+      <c r="O15" t="s">
+        <v>161</v>
+      </c>
       <c r="Q15">
         <v>2024</v>
       </c>
@@ -1704,7 +1734,7 @@
         <v>105</v>
       </c>
       <c r="D17">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E17">
         <v>23</v>
@@ -1740,7 +1770,7 @@
         <v>17</v>
       </c>
       <c r="P17">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="Q17">
         <v>2024</v>
@@ -1792,11 +1822,14 @@
       <c r="N18">
         <v>1588</v>
       </c>
+      <c r="O18" t="s">
+        <v>161</v>
+      </c>
       <c r="Q18">
         <v>2024</v>
       </c>
       <c r="R18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -1810,7 +1843,7 @@
         <v>107</v>
       </c>
       <c r="D19">
-        <v>30434</v>
+        <v>34325</v>
       </c>
       <c r="E19">
         <v>3230</v>
@@ -1839,7 +1872,10 @@
       <c r="M19">
         <v>3291</v>
       </c>
-      <c r="N19" t="s">
+      <c r="N19">
+        <v>3891</v>
+      </c>
+      <c r="O19" t="s">
         <v>161</v>
       </c>
       <c r="Q19">
@@ -1945,6 +1981,9 @@
       <c r="N21" t="s">
         <v>161</v>
       </c>
+      <c r="O21" t="s">
+        <v>161</v>
+      </c>
       <c r="Q21">
         <v>2024</v>
       </c>
@@ -1963,7 +2002,7 @@
         <v>110</v>
       </c>
       <c r="D22">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="E22">
         <v>22</v>
@@ -1999,7 +2038,7 @@
         <v>16</v>
       </c>
       <c r="P22">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="Q22">
         <v>2024</v>
@@ -2019,7 +2058,7 @@
         <v>111</v>
       </c>
       <c r="D23">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="E23">
         <v>46</v>
@@ -2055,7 +2094,7 @@
         <v>73</v>
       </c>
       <c r="P23">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="Q23">
         <v>2024</v>
@@ -2107,6 +2146,9 @@
       <c r="N24" t="s">
         <v>161</v>
       </c>
+      <c r="O24" t="s">
+        <v>161</v>
+      </c>
       <c r="Q24">
         <v>2024</v>
       </c>
@@ -2263,11 +2305,14 @@
       <c r="N27">
         <v>147</v>
       </c>
+      <c r="O27" t="s">
+        <v>161</v>
+      </c>
       <c r="Q27">
         <v>2024</v>
       </c>
       <c r="R27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" spans="1:18">
@@ -2281,7 +2326,7 @@
         <v>116</v>
       </c>
       <c r="D28">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="E28">
         <v>13</v>
@@ -2314,7 +2359,10 @@
         <v>17</v>
       </c>
       <c r="O28">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="P28">
+        <v>8</v>
       </c>
       <c r="Q28">
         <v>2024</v>
@@ -2346,16 +2394,16 @@
         <v>2</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>9</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L29">
         <v>3</v>
@@ -2366,11 +2414,14 @@
       <c r="N29">
         <v>1</v>
       </c>
+      <c r="O29" t="s">
+        <v>161</v>
+      </c>
       <c r="Q29">
         <v>2024</v>
       </c>
       <c r="R29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="1:18">
@@ -2413,6 +2464,9 @@
       <c r="N30" t="s">
         <v>161</v>
       </c>
+      <c r="O30" t="s">
+        <v>161</v>
+      </c>
       <c r="Q30">
         <v>2024</v>
       </c>
@@ -2463,11 +2517,14 @@
       <c r="N31">
         <v>521</v>
       </c>
+      <c r="O31" t="s">
+        <v>161</v>
+      </c>
       <c r="Q31">
         <v>2024</v>
       </c>
       <c r="R31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:18">
@@ -2534,7 +2591,7 @@
         <v>121</v>
       </c>
       <c r="D33">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E33">
         <v>20</v>
@@ -2560,23 +2617,23 @@
       <c r="L33">
         <v>7</v>
       </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
+      <c r="M33" t="s">
+        <v>161</v>
+      </c>
+      <c r="N33" t="s">
+        <v>161</v>
       </c>
       <c r="O33">
         <v>4</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q33">
         <v>2024</v>
       </c>
       <c r="R33" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="34" spans="1:18">
@@ -2590,7 +2647,7 @@
         <v>122</v>
       </c>
       <c r="D34">
-        <v>924</v>
+        <v>936</v>
       </c>
       <c r="E34">
         <v>195</v>
@@ -2602,16 +2659,16 @@
         <v>28</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L34">
         <v>136</v>
@@ -2622,6 +2679,9 @@
       <c r="N34" t="s">
         <v>161</v>
       </c>
+      <c r="O34" t="s">
+        <v>161</v>
+      </c>
       <c r="Q34">
         <v>2024</v>
       </c>
@@ -2645,14 +2705,14 @@
       <c r="E35">
         <v>3</v>
       </c>
-      <c r="F35">
-        <v>0</v>
+      <c r="F35" t="s">
+        <v>161</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
-      <c r="H35">
-        <v>0</v>
+      <c r="H35" t="s">
+        <v>161</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -2661,7 +2721,7 @@
         <v>1</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="L35">
         <v>3</v>
@@ -2679,7 +2739,7 @@
         <v>2024</v>
       </c>
       <c r="R35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -2725,11 +2785,14 @@
       <c r="N36">
         <v>825</v>
       </c>
+      <c r="O36" t="s">
+        <v>161</v>
+      </c>
       <c r="Q36">
         <v>2024</v>
       </c>
       <c r="R36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -2743,7 +2806,7 @@
         <v>125</v>
       </c>
       <c r="D37">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -2769,8 +2832,8 @@
       <c r="L37">
         <v>5</v>
       </c>
-      <c r="M37" t="s">
-        <v>161</v>
+      <c r="M37">
+        <v>2</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2782,7 +2845,7 @@
         <v>2024</v>
       </c>
       <c r="R37" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -2796,7 +2859,7 @@
         <v>126</v>
       </c>
       <c r="D38">
-        <v>8501</v>
+        <v>9278</v>
       </c>
       <c r="E38">
         <v>920</v>
@@ -2828,6 +2891,9 @@
       <c r="N38">
         <v>871</v>
       </c>
+      <c r="O38">
+        <v>777</v>
+      </c>
       <c r="Q38">
         <v>2024</v>
       </c>
@@ -2878,6 +2944,9 @@
       <c r="N39" t="s">
         <v>161</v>
       </c>
+      <c r="O39" t="s">
+        <v>161</v>
+      </c>
       <c r="Q39">
         <v>2024</v>
       </c>
@@ -2928,11 +2997,14 @@
       <c r="N40">
         <v>37</v>
       </c>
+      <c r="O40" t="s">
+        <v>161</v>
+      </c>
       <c r="Q40">
         <v>2024</v>
       </c>
       <c r="R40" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -2978,11 +3050,14 @@
       <c r="N41">
         <v>470</v>
       </c>
+      <c r="O41" t="s">
+        <v>161</v>
+      </c>
       <c r="Q41">
         <v>2024</v>
       </c>
       <c r="R41" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -3028,6 +3103,9 @@
       <c r="N42" t="s">
         <v>161</v>
       </c>
+      <c r="O42" t="s">
+        <v>161</v>
+      </c>
       <c r="Q42">
         <v>2024</v>
       </c>
@@ -3184,6 +3262,9 @@
       <c r="N45" t="s">
         <v>161</v>
       </c>
+      <c r="O45" t="s">
+        <v>161</v>
+      </c>
       <c r="Q45">
         <v>2024</v>
       </c>
@@ -3202,7 +3283,7 @@
         <v>134</v>
       </c>
       <c r="D46">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="E46">
         <v>20</v>
@@ -3225,13 +3306,16 @@
       <c r="K46">
         <v>27</v>
       </c>
-      <c r="L46" t="s">
-        <v>161</v>
+      <c r="L46">
+        <v>26</v>
       </c>
       <c r="M46" t="s">
         <v>161</v>
       </c>
       <c r="N46" t="s">
+        <v>161</v>
+      </c>
+      <c r="O46" t="s">
         <v>161</v>
       </c>
       <c r="Q46">
@@ -3284,11 +3368,14 @@
       <c r="N47">
         <v>21</v>
       </c>
+      <c r="O47" t="s">
+        <v>161</v>
+      </c>
       <c r="Q47">
         <v>2024</v>
       </c>
       <c r="R47" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -3355,7 +3442,7 @@
         <v>137</v>
       </c>
       <c r="D49">
-        <v>1020</v>
+        <v>1023</v>
       </c>
       <c r="E49">
         <v>95</v>
@@ -3391,7 +3478,7 @@
         <v>77</v>
       </c>
       <c r="P49">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="Q49">
         <v>2024</v>
@@ -3411,7 +3498,7 @@
         <v>138</v>
       </c>
       <c r="D50">
-        <v>571</v>
+        <v>672</v>
       </c>
       <c r="E50">
         <v>100</v>
@@ -3440,14 +3527,17 @@
       <c r="M50">
         <v>37</v>
       </c>
-      <c r="N50" t="s">
-        <v>161</v>
+      <c r="N50">
+        <v>52</v>
+      </c>
+      <c r="O50">
+        <v>49</v>
       </c>
       <c r="Q50">
         <v>2024</v>
       </c>
       <c r="R50" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:18">
@@ -3493,11 +3583,14 @@
       <c r="N51">
         <v>810</v>
       </c>
+      <c r="O51" t="s">
+        <v>161</v>
+      </c>
       <c r="Q51">
         <v>2024</v>
       </c>
       <c r="R51" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="1:18">
@@ -3511,7 +3604,7 @@
         <v>140</v>
       </c>
       <c r="D52">
-        <v>11109</v>
+        <v>12737</v>
       </c>
       <c r="E52">
         <v>1624</v>
@@ -3541,7 +3634,10 @@
         <v>1160</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>1629</v>
+      </c>
+      <c r="O52" t="s">
+        <v>161</v>
       </c>
       <c r="Q52">
         <v>2024</v>
@@ -3566,20 +3662,20 @@
       <c r="E53">
         <v>4</v>
       </c>
-      <c r="F53">
-        <v>0</v>
-      </c>
-      <c r="G53">
-        <v>0</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
+      <c r="F53" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" t="s">
+        <v>161</v>
+      </c>
+      <c r="H53" t="s">
+        <v>161</v>
       </c>
       <c r="I53">
         <v>2</v>
       </c>
-      <c r="J53">
-        <v>0</v>
+      <c r="J53" t="s">
+        <v>161</v>
       </c>
       <c r="K53">
         <v>1</v>
@@ -3587,17 +3683,14 @@
       <c r="L53">
         <v>1</v>
       </c>
-      <c r="M53">
-        <v>0</v>
+      <c r="M53" t="s">
+        <v>161</v>
       </c>
       <c r="N53" t="s">
         <v>161</v>
       </c>
-      <c r="O53">
-        <v>0</v>
-      </c>
-      <c r="P53">
-        <v>0</v>
+      <c r="O53" t="s">
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>2024</v>
@@ -3622,20 +3715,20 @@
       <c r="E54">
         <v>1</v>
       </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
+      <c r="F54" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" t="s">
+        <v>161</v>
       </c>
       <c r="K54">
         <v>1</v>
@@ -3643,14 +3736,14 @@
       <c r="L54" t="s">
         <v>161</v>
       </c>
-      <c r="M54">
-        <v>0</v>
+      <c r="M54" t="s">
+        <v>161</v>
       </c>
       <c r="N54">
         <v>1</v>
       </c>
-      <c r="O54">
-        <v>0</v>
+      <c r="O54" t="s">
+        <v>161</v>
       </c>
       <c r="Q54">
         <v>2024</v>
@@ -3675,14 +3768,14 @@
       <c r="E55">
         <v>1</v>
       </c>
-      <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
-      </c>
-      <c r="H55">
-        <v>0</v>
+      <c r="F55" t="s">
+        <v>161</v>
+      </c>
+      <c r="G55" t="s">
+        <v>161</v>
+      </c>
+      <c r="H55" t="s">
+        <v>161</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -3702,6 +3795,9 @@
       <c r="N55" t="s">
         <v>161</v>
       </c>
+      <c r="O55" t="s">
+        <v>161</v>
+      </c>
       <c r="P55">
         <v>1</v>
       </c>
@@ -3723,7 +3819,7 @@
         <v>144</v>
       </c>
       <c r="D56">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="E56">
         <v>13</v>
@@ -3753,7 +3849,10 @@
         <v>14</v>
       </c>
       <c r="N56">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="O56">
+        <v>5</v>
       </c>
       <c r="Q56">
         <v>2024</v>
@@ -3772,47 +3871,44 @@
       <c r="C57" t="s">
         <v>145</v>
       </c>
-      <c r="E57">
-        <v>0</v>
-      </c>
-      <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>0</v>
-      </c>
-      <c r="L57">
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <v>0</v>
-      </c>
-      <c r="N57">
-        <v>0</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57">
-        <v>0</v>
+      <c r="E57" t="s">
+        <v>161</v>
+      </c>
+      <c r="F57" t="s">
+        <v>161</v>
+      </c>
+      <c r="G57" t="s">
+        <v>161</v>
+      </c>
+      <c r="H57" t="s">
+        <v>161</v>
+      </c>
+      <c r="I57" t="s">
+        <v>161</v>
+      </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
+      <c r="K57" t="s">
+        <v>161</v>
+      </c>
+      <c r="L57" t="s">
+        <v>161</v>
+      </c>
+      <c r="M57" t="s">
+        <v>161</v>
+      </c>
+      <c r="N57" t="s">
+        <v>161</v>
+      </c>
+      <c r="O57" t="s">
+        <v>161</v>
       </c>
       <c r="Q57">
         <v>2024</v>
       </c>
       <c r="R57" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="58" spans="1:18">
@@ -3911,11 +4007,14 @@
       <c r="N59">
         <v>2035</v>
       </c>
+      <c r="O59" t="s">
+        <v>161</v>
+      </c>
       <c r="Q59">
         <v>2024</v>
       </c>
       <c r="R59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="60" spans="1:18">
@@ -3961,11 +4060,14 @@
       <c r="N60">
         <v>856</v>
       </c>
+      <c r="O60" t="s">
+        <v>161</v>
+      </c>
       <c r="Q60">
         <v>2024</v>
       </c>
       <c r="R60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:18">
@@ -4011,11 +4113,14 @@
       <c r="N61">
         <v>79</v>
       </c>
+      <c r="O61" t="s">
+        <v>161</v>
+      </c>
       <c r="Q61">
         <v>2024</v>
       </c>
       <c r="R61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="62" spans="1:18">
@@ -4029,7 +4134,7 @@
         <v>150</v>
       </c>
       <c r="D62">
-        <v>3300</v>
+        <v>3722</v>
       </c>
       <c r="E62">
         <v>359</v>
@@ -4058,7 +4163,10 @@
       <c r="M62">
         <v>307</v>
       </c>
-      <c r="N62" t="s">
+      <c r="N62">
+        <v>422</v>
+      </c>
+      <c r="O62" t="s">
         <v>161</v>
       </c>
       <c r="Q62">
@@ -4111,6 +4219,9 @@
       <c r="N63" t="s">
         <v>161</v>
       </c>
+      <c r="O63" t="s">
+        <v>161</v>
+      </c>
       <c r="Q63">
         <v>2024</v>
       </c>
@@ -4185,7 +4296,7 @@
         <v>153</v>
       </c>
       <c r="D65">
-        <v>574</v>
+        <v>755</v>
       </c>
       <c r="E65">
         <v>72</v>
@@ -4209,19 +4320,22 @@
         <v>73</v>
       </c>
       <c r="L65">
-        <v>64</v>
-      </c>
-      <c r="M65" t="s">
-        <v>161</v>
-      </c>
-      <c r="N65" t="s">
-        <v>161</v>
+        <v>81</v>
+      </c>
+      <c r="M65">
+        <v>54</v>
+      </c>
+      <c r="N65">
+        <v>77</v>
+      </c>
+      <c r="O65">
+        <v>33</v>
       </c>
       <c r="Q65">
         <v>2024</v>
       </c>
       <c r="R65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:18">
@@ -4235,7 +4349,7 @@
         <v>154</v>
       </c>
       <c r="D66">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="E66">
         <v>22</v>
@@ -4259,12 +4373,15 @@
         <v>31</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="M66" t="s">
         <v>161</v>
       </c>
       <c r="N66" t="s">
+        <v>161</v>
+      </c>
+      <c r="O66" t="s">
         <v>161</v>
       </c>
       <c r="Q66">
@@ -4317,11 +4434,14 @@
       <c r="N67">
         <v>1270</v>
       </c>
+      <c r="O67" t="s">
+        <v>161</v>
+      </c>
       <c r="Q67">
         <v>2024</v>
       </c>
       <c r="R67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -4367,11 +4487,14 @@
       <c r="N68">
         <v>2056</v>
       </c>
+      <c r="O68" t="s">
+        <v>161</v>
+      </c>
       <c r="Q68">
         <v>2024</v>
       </c>
       <c r="R68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="69" spans="1:18">
@@ -4384,47 +4507,44 @@
       <c r="C69" t="s">
         <v>157</v>
       </c>
-      <c r="E69">
-        <v>0</v>
-      </c>
-      <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-      <c r="I69">
-        <v>0</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>0</v>
-      </c>
-      <c r="L69">
-        <v>0</v>
-      </c>
-      <c r="M69">
-        <v>0</v>
-      </c>
-      <c r="N69">
-        <v>0</v>
-      </c>
-      <c r="O69">
-        <v>0</v>
-      </c>
-      <c r="P69">
-        <v>0</v>
+      <c r="E69" t="s">
+        <v>161</v>
+      </c>
+      <c r="F69" t="s">
+        <v>161</v>
+      </c>
+      <c r="G69" t="s">
+        <v>161</v>
+      </c>
+      <c r="H69" t="s">
+        <v>161</v>
+      </c>
+      <c r="I69" t="s">
+        <v>161</v>
+      </c>
+      <c r="J69" t="s">
+        <v>161</v>
+      </c>
+      <c r="K69" t="s">
+        <v>161</v>
+      </c>
+      <c r="L69" t="s">
+        <v>161</v>
+      </c>
+      <c r="M69" t="s">
+        <v>161</v>
+      </c>
+      <c r="N69" t="s">
+        <v>161</v>
+      </c>
+      <c r="O69" t="s">
+        <v>161</v>
       </c>
       <c r="Q69">
         <v>2024</v>
       </c>
       <c r="R69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="70" spans="1:18">
@@ -4470,6 +4590,9 @@
       <c r="N70" t="s">
         <v>161</v>
       </c>
+      <c r="O70" t="s">
+        <v>161</v>
+      </c>
       <c r="Q70">
         <v>2024</v>
       </c>
@@ -4520,6 +4643,9 @@
       <c r="N71" t="s">
         <v>161</v>
       </c>
+      <c r="O71" t="s">
+        <v>161</v>
+      </c>
       <c r="Q71">
         <v>2024</v>
       </c>
@@ -4537,26 +4663,26 @@
       <c r="C72" t="s">
         <v>160</v>
       </c>
-      <c r="E72">
-        <v>0</v>
-      </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-      <c r="H72">
-        <v>0</v>
-      </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>0</v>
+      <c r="E72" t="s">
+        <v>161</v>
+      </c>
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="G72" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" t="s">
+        <v>161</v>
+      </c>
+      <c r="I72" t="s">
+        <v>161</v>
+      </c>
+      <c r="J72" t="s">
+        <v>161</v>
+      </c>
+      <c r="K72" t="s">
+        <v>161</v>
       </c>
       <c r="L72" t="s">
         <v>161</v>
@@ -4565,6 +4691,9 @@
         <v>161</v>
       </c>
       <c r="N72" t="s">
+        <v>161</v>
+      </c>
+      <c r="O72" t="s">
         <v>161</v>
       </c>
       <c r="Q72">
